--- a/results/feature_importance_to_performance_in_online.xlsx
+++ b/results/feature_importance_to_performance_in_online.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,301 +434,235 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Feature</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Importance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Clearing doubts with faculties in online mode</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.2534181074179778</v>
+      <c r="B2" t="n">
+        <v>0.3522771739471194</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Your interaction in online mode</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.143249088031753</v>
+      <c r="B3" t="n">
+        <v>0.2698968779331239</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Your level of satisfaction in Online Education</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08597076046638069</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Internet facility in your locality</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04362800914091689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Study time (Hours)</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0.06878858125136779</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Internet facility in your locality</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05355793490098505</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>0.03751904314209767</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Age(Years)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02695714247219338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Number of Subjects</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0269032907731333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Average marks scored before pandemic in traditional classroom</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02180824857997849</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Time spent on social media (Hours)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01964657060908391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sleep time (Hours)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01531789099090666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Have separate room for studying?</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01364211194355997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interested in?</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0115153895605668</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Do elderly people monitor you?</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01105174118516236</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Engaged in group studies?</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01057520328159377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0102142502026569</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Are you involved in any sports?</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.008677154344274352</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Home Location</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.008320618335749753</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Family size</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.05196931624587521</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Number of Subjects</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04873460361035411</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Average marks scored before pandemic in traditional classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04656358264822151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Age(Years)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03969463803971775</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Your level of satisfaction in Online Education</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03934047678257718</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sleep time (Hours)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03895751879358868</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Time spent on social media (Hours)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03017861323251165</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02749697446238271</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Interested in?</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02734500569019504</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Do elderly people monitor you?</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02481177784460913</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Engaged in group studies?</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02247077438791609</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="n">
+        <v>0.007999259497468074</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Device type used to attend classes</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.01906491972689619</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Are you involved in any sports?</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01835871745658148</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="n">
+        <v>0.007921028418972494</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Interested in Gaming?</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0.01598969526550436</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Have separate room for studying?</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01098740057810822</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Home Location</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.008013516739389997</v>
+      <c r="B21" t="n">
+        <v>0.007664433321555015</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Level of Education</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0.005578277058119079</v>
+      <c r="B22" t="n">
+        <v>0.002254346301167081</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Economic status</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0.005430479835368143</v>
+      <c r="B23" t="n">
+        <v>0.0002394555523390024</v>
       </c>
     </row>
   </sheetData>

--- a/results/feature_importance_to_performance_in_online.xlsx
+++ b/results/feature_importance_to_performance_in_online.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="feature_importance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cv_scores" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,4 +669,70 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cross-validation R^2 scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.310646068017594</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2424582917579408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4400098584980944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3365234053737414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5022688053484423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>